--- a/tbp_bulten.xlsx
+++ b/tbp_bulten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurselkona/Documents/spotrates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098020E2-26A5-6D4D-976B-AA3724AB9EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B46B32-3F6F-904B-9656-2EFFCF0D66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{38BA6D41-0B11-CB4B-A861-BC8FF1BDC8C3}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,49 +502,61 @@
       <c r="A1" s="1">
         <v>46003</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C2">
+        <v>39.5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1">
+        <v>46068</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>46006</v>
-      </c>
-      <c r="C3">
-        <v>39.5</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>46071</v>
+      </c>
+      <c r="C3" s="2">
+        <v>98000</v>
+      </c>
       <c r="L3" s="1">
-        <v>46068</v>
+        <v>46157</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -552,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>46071</v>
+        <v>46092</v>
       </c>
       <c r="C4" s="2">
-        <v>98000</v>
+        <v>92355</v>
       </c>
       <c r="L4" s="1">
-        <v>46157</v>
+        <v>46249</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -566,29 +578,41 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>46092</v>
+        <v>46190</v>
       </c>
       <c r="C5" s="2">
-        <v>92355</v>
+        <v>84370</v>
       </c>
       <c r="L5" s="1">
-        <v>46249</v>
+        <v>46310</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>46190</v>
+        <v>46246</v>
       </c>
       <c r="C6" s="2">
-        <v>84370</v>
+        <v>102000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46065</v>
+      </c>
+      <c r="E6">
+        <v>9000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>46246</v>
+      </c>
+      <c r="G6">
+        <v>9000</v>
       </c>
       <c r="L6" s="1">
-        <v>46310</v>
+        <v>46371</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -596,56 +620,30 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>46246</v>
+        <v>46428</v>
       </c>
       <c r="C7" s="2">
-        <v>102000</v>
+        <v>104000</v>
       </c>
       <c r="D7" s="1">
-        <v>46065</v>
+        <v>46063</v>
       </c>
       <c r="E7">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="F7" s="1">
-        <v>46246</v>
+        <v>46244</v>
       </c>
       <c r="G7">
-        <v>9000</v>
+        <v>7500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>46428</v>
+      </c>
+      <c r="I7">
+        <v>7500</v>
       </c>
       <c r="L7" s="1">
-        <v>46371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>46428</v>
-      </c>
-      <c r="C8" s="2">
-        <v>104000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>46063</v>
-      </c>
-      <c r="E8">
-        <v>7500</v>
-      </c>
-      <c r="F8" s="1">
-        <v>46244</v>
-      </c>
-      <c r="G8">
-        <v>7500</v>
-      </c>
-      <c r="H8" s="1">
-        <v>46428</v>
-      </c>
-      <c r="I8">
-        <v>7500</v>
-      </c>
-      <c r="L8" s="1">
         <v>46428</v>
       </c>
     </row>

--- a/tbp_bulten.xlsx
+++ b/tbp_bulten.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurselkona/Documents/spotrates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B46B32-3F6F-904B-9656-2EFFCF0D66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4CFCE1-C5A7-4647-9C2B-93EB328CDAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{38BA6D41-0B11-CB4B-A861-BC8FF1BDC8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,8 @@
         <v>46006</v>
       </c>
       <c r="C2">
-        <v>39.5</v>
+        <f>39.5*(1-0.15)</f>
+        <v>33.574999999999996</v>
       </c>
       <c r="J2" s="1"/>
       <c r="L2" s="1">

--- a/tbp_bulten.xlsx
+++ b/tbp_bulten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurselkona/Documents/spotrates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4CFCE1-C5A7-4647-9C2B-93EB328CDAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5950E06-A02F-204B-A20A-6BBBB045501C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{38BA6D41-0B11-CB4B-A861-BC8FF1BDC8C3}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,13 +548,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>46071</v>
       </c>
       <c r="C3" s="2">
-        <v>98000</v>
+        <v>111588</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46071</v>
+      </c>
+      <c r="E3">
+        <v>18500</v>
       </c>
       <c r="L3" s="1">
         <v>46157</v>
@@ -598,19 +604,19 @@
         <v>46246</v>
       </c>
       <c r="C6" s="2">
-        <v>102000</v>
+        <v>111567</v>
       </c>
       <c r="D6" s="1">
         <v>46065</v>
       </c>
       <c r="E6">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="F6" s="1">
         <v>46246</v>
       </c>
       <c r="G6">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L6" s="1">
         <v>46371</v>
@@ -624,25 +630,25 @@
         <v>46428</v>
       </c>
       <c r="C7" s="2">
-        <v>104000</v>
+        <v>108037</v>
       </c>
       <c r="D7" s="1">
         <v>46063</v>
       </c>
       <c r="E7">
-        <v>7500</v>
+        <v>16300</v>
       </c>
       <c r="F7" s="1">
         <v>46244</v>
       </c>
       <c r="G7">
-        <v>7500</v>
+        <v>16300</v>
       </c>
       <c r="H7" s="1">
         <v>46428</v>
       </c>
       <c r="I7">
-        <v>7500</v>
+        <v>16300</v>
       </c>
       <c r="L7" s="1">
         <v>46428</v>
